--- a/biology/Médecine/Programme_de_technologie_appropriée_en_santé/Programme_de_technologie_appropriée_en_santé.xlsx
+++ b/biology/Médecine/Programme_de_technologie_appropriée_en_santé/Programme_de_technologie_appropriée_en_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Programme_de_technologie_appropri%C3%A9e_en_sant%C3%A9</t>
+          <t>Programme_de_technologie_appropriée_en_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le programme de technologie appropriée en santé (PATH pour Program for Appropriate Technology in Health) est une organisation non-gouvernementale basée à Seattle[1] aux États-Unis qui emploie plus de 1 200 personnes avec un total de 30 bureaux dans le monde. Elle a été fondée en 1977[2],[3]. Elle travaille sur les questions autour du planning familial, de la santé mère/enfant[4],[5],[6], de la vaccination[7],[8] de la malnutrition, du sida[9], de la tuberculose, de la malaria, du cancer[10],[11], etc. Elle participe avec l'OMS au Projet Vaccins Méningite, qui développé le MenAfriVac[12].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le programme de technologie appropriée en santé (PATH pour Program for Appropriate Technology in Health) est une organisation non-gouvernementale basée à Seattle aux États-Unis qui emploie plus de 1 200 personnes avec un total de 30 bureaux dans le monde. Elle a été fondée en 1977,. Elle travaille sur les questions autour du planning familial, de la santé mère/enfant de la vaccination, de la malnutrition, du sida, de la tuberculose, de la malaria, du cancer etc. Elle participe avec l'OMS au Projet Vaccins Méningite, qui développé le MenAfriVac.
 </t>
         </is>
       </c>
